--- a/Invoice_template.xlsx
+++ b/Invoice_template.xlsx
@@ -1,79 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayja\Invoice-Automater\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19484F6D-01B0-49A3-8148-467A1ECA6AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">InvoiceDetails[[#Headers],[Details]]</definedName>
     <definedName name="ColumnTitleRegion1..B4.1">Invoice!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C9.1">Invoice!$B$6</definedName>
     <definedName name="Company_Name">Invoice!$B$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Invoice'!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Invoice!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Funky's Electrical</t>
+  </si>
+  <si>
+    <t>5924 Ashton Woods Cir., Milton, FL 32570</t>
+  </si>
+  <si>
+    <t>(850) 207-1800</t>
+  </si>
+  <si>
+    <t>BILL TO</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>Alice Bell</t>
+  </si>
+  <si>
+    <t>Generator Maintenance</t>
+  </si>
+  <si>
+    <t>6690 Chestnut Rd
+Molino, Fl, 32577</t>
+  </si>
+  <si>
+    <t>850-206-8894</t>
+  </si>
+  <si>
+    <t>Salesperson</t>
+  </si>
+  <si>
+    <t>Payment Terms</t>
+  </si>
+  <si>
+    <t>Gary Funkhouser</t>
+  </si>
+  <si>
+    <t>Due upon reciept</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>Gen Set PM</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>SALES TAX</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>If you have any questions concerning this invoice, use the following contact information:</t>
+  </si>
+  <si>
+    <t>Gary Funkhouser, (850) 207-1800, funkyselectrical@gmail.com
+License # EC13005709</t>
+  </si>
+  <si>
+    <t>THANK YOU FOR YOUR BUSINESS!</t>
+  </si>
+  <si>
+    <t>INVOICE #3133</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="4"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="29"/>
+      <color theme="5"/>
       <name val="Georgia"/>
       <family val="2"/>
-      <color theme="5"/>
-      <sz val="29"/>
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="4"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color theme="5"/>
       <name val="Georgia"/>
       <family val="1"/>
-      <color theme="5"/>
-      <sz val="15"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="4"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="4"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -101,93 +200,93 @@
     </border>
   </borders>
   <cellStyleXfs count="12">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="7">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Currency" xfId="8" builtinId="4"/>
+    <cellStyle name="Date" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Explanatory Text" xfId="9" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Date" xfId="7"/>
-    <cellStyle name="Currency" xfId="8" builtinId="4"/>
-    <cellStyle name="Explanatory Text" xfId="9" builtinId="53"/>
-    <cellStyle name="Product Description" xfId="10"/>
-    <cellStyle name="Phone" xfId="11"/>
+    <cellStyle name="Phone" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Product Description" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -200,7 +299,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="4"/>
       </font>
       <fill>
@@ -228,18 +327,18 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="4"/>
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.3999450666829432"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="4"/>
       </font>
       <border>
@@ -263,7 +362,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Invoice" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invoice" pivot="0" count="6">
+    <tableStyle name="Invoice" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -272,94 +371,34 @@
       <tableStyleElement type="lastTotalCell" dxfId="1"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InvoiceDetails" displayName="InvoiceDetails" ref="B12:C13" headerRowCount="1" headerRowCellStyle="Heading 4">
-  <autoFilter ref="B12:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InvoiceDetails" displayName="InvoiceDetails" ref="B12:C13" headerRowCellStyle="Heading 4">
+  <autoFilter ref="B12:C13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Details" totalsRowLabel="Total" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Details" totalsRowLabel="Total" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AMOUNT" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Invoice" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:C11" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="B10:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B10:C11" totalsRowShown="0">
+  <autoFilter ref="B10:C11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Salesperson"/>
-    <tableColumn id="2" name="Payment Terms"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Salesperson"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Payment Terms"/>
   </tableColumns>
   <tableStyleInfo name="Invoice" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,208 +606,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="2.58203125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="50.6640625" customWidth="1" style="13" min="2" max="2"/>
-    <col width="30.5" customWidth="1" style="13" min="3" max="3"/>
-    <col width="2.58203125" customWidth="1" style="13" min="4" max="4"/>
+    <col min="1" max="1" width="2.58203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="50.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="2.58203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="13">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>INVOICE #31311</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="50.15" customHeight="1" s="13">
-      <c r="B2" s="7" t="inlineStr">
-        <is>
-          <t>Funky's Electrical</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" s="13">
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>5924 Ashton Woods Cir., Milton, FL 32570</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" s="13">
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>(850) 207-1800</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" s="13">
+    <row r="1" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="50.15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
-        <f>TODAY()</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" s="13">
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>BILL TO</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>FOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" s="13">
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Maralynn Engert</t>
-        </is>
-      </c>
-      <c r="C7" s="16" t="inlineStr">
-        <is>
-          <t>Generator Maintenance</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" s="13">
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>4431 Winners Gait Cir
-Pace, FL 32571</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" s="13">
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>850-619-7232</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1" s="13">
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Salesperson</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>Payment Terms</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" s="13">
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Gary Funkhouser</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>Due upon reciept</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" s="13">
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Details</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>AMOUNT</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" s="13">
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Gen Set PM</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="n">
+        <f ca="1">TODAY()</f>
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1" s="13">
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>SUBTOTAL</t>
-        </is>
+    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="8">
         <f>SUBTOTAL(109,InvoiceDetails[AMOUNT])</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" s="13">
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>SALES TAX</t>
-        </is>
-      </c>
-      <c r="C15" s="9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="30" customHeight="1" s="13">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="8">
         <f>SUM(C14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" s="13">
-      <c r="B17" s="10" t="n"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" s="13">
-      <c r="B18" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="str">
         <f>"Make all checks payable to "&amp; Company_Name</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" s="13">
-      <c r="B19" s="14" t="inlineStr">
-        <is>
-          <t>If you have any questions concerning this invoice, use the following contact information:</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="30" customHeight="1" s="13">
-      <c r="B20" s="15" t="inlineStr">
-        <is>
-          <t>Gary Funkhouser, (850) 207-1800, funkyselectrical@gmail.com
-License # EC13005709</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="30" customHeight="1" s="13">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>THANK YOU FOR YOUR BUSINESS!</t>
-        </is>
+        <v>Make all checks payable to Funky's Electrical</v>
+      </c>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -779,45 +772,40 @@
     <mergeCell ref="C7:C9"/>
   </mergeCells>
   <dataValidations count="24">
-    <dataValidation sqref="A2:A1048576 B21:C1048576 C1:C5 D1:XFD8 D9:H9 D10:XFD1048576 J9:XFD9" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0"/>
-    <dataValidation sqref="A1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Create an Invoice in this worksheet. Enter invoice details, item descriptions, amount, tax rate, and any other cost. Subtotal and Total are automatically calculated"/>
-    <dataValidation sqref="B1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Number in this cell. Enter Invoice Company &amp; Customer details in cells below"/>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Company Name in this cell"/>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Company Address, City, State, and Zip Code in this cell"/>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Phone and Fax numbers in this cell"/>
-    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Date in this cell"/>
-    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Customer details in cell below"/>
-    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Product Description in cell below"/>
-    <dataValidation sqref="C7:C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Product Description in this cell"/>
-    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Address, City, State, and Zip Code in this cell"/>
-    <dataValidation sqref="B14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Subtotal is automatically calculated in cell at right"/>
-    <dataValidation sqref="C14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Subtotal is automatically calculated in this cell"/>
-    <dataValidation sqref="B15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Tax Rate in cell at right"/>
-    <dataValidation sqref="C15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Tax Rate in this cell"/>
-    <dataValidation sqref="B16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Total is automatically calculated in cell at right"/>
-    <dataValidation sqref="C16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Total is automatically calculated in this cell"/>
-    <dataValidation sqref="B18:C18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Company Name is automatically appended in this cell"/>
-    <dataValidation sqref="B19:C19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Contact details in cell below"/>
-    <dataValidation sqref="B20:C20" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Contact Name, Phone Number, and Email in this cell"/>
-    <dataValidation sqref="B9:B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Phone number in this cell"/>
-    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Customer Name or Company Name in this cell"/>
-    <dataValidation sqref="C12:C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Amount in this column under this heading for each description in column B. Enter Tax Rate &amp; any Other cost in cell below the table to calculate Subtotal and Total amount"/>
-    <dataValidation sqref="B12:B13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Details in this column under this heading. Use heading filters to find specific entries"/>
+    <dataValidation showErrorMessage="1" sqref="A2:A1048576 B21:C1048576 C1:C5 D1:XFD8 D9:H9 D10:XFD1048576 J9:XFD9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Create an Invoice in this worksheet. Enter invoice details, item descriptions, amount, tax rate, and any other cost. Subtotal and Total are automatically calculated" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Number in this cell. Enter Invoice Company &amp; Customer details in cells below" sqref="B1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Company Name in this cell" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Company Address, City, State, and Zip Code in this cell" sqref="B3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Phone and Fax numbers in this cell" sqref="B4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Date in this cell" sqref="B5" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Customer details in cell below" sqref="B6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Product Description in cell below" sqref="C6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Product Description in this cell" sqref="C7:C10" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Address, City, State, and Zip Code in this cell" sqref="B8" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Subtotal is automatically calculated in cell at right" sqref="B14" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Subtotal is automatically calculated in this cell" sqref="C14" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Tax Rate in cell at right" sqref="B15" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Tax Rate in this cell" sqref="C15" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Total is automatically calculated in cell at right" sqref="B16" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Total is automatically calculated in this cell" sqref="C16" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Company Name is automatically appended in this cell" sqref="B18:C18" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Contact details in cell below" sqref="B19:C19" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Contact Name, Phone Number, and Email in this cell" sqref="B20:C20" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Phone number in this cell" sqref="B9:B10" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Customer Name or Company Name in this cell" sqref="B7" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading for each description in column B. Enter Tax Rate &amp; any Other cost in cell below the table to calculate Subtotal and Total amount" sqref="C12:C13" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Details in this column under this heading. Use heading filters to find specific entries" sqref="B12:B13" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" fitToHeight="0"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
   <headerFooter differentFirst="1">
-    <oddHeader/>
     <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
   <tableParts count="2">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Invoice_template.xlsx
+++ b/Invoice_template.xlsx
@@ -1,178 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayja\Invoice-Automater\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19484F6D-01B0-49A3-8148-467A1ECA6AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">InvoiceDetails[[#Headers],[Details]]</definedName>
     <definedName name="ColumnTitleRegion1..B4.1">Invoice!$B$2</definedName>
     <definedName name="ColumnTitleRegion2..C9.1">Invoice!$B$6</definedName>
     <definedName name="Company_Name">Invoice!$B$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Invoice!$10:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Invoice'!$10:$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Funky's Electrical</t>
-  </si>
-  <si>
-    <t>5924 Ashton Woods Cir., Milton, FL 32570</t>
-  </si>
-  <si>
-    <t>(850) 207-1800</t>
-  </si>
-  <si>
-    <t>BILL TO</t>
-  </si>
-  <si>
-    <t>FOR</t>
-  </si>
-  <si>
-    <t>Alice Bell</t>
-  </si>
-  <si>
-    <t>Generator Maintenance</t>
-  </si>
-  <si>
-    <t>6690 Chestnut Rd
-Molino, Fl, 32577</t>
-  </si>
-  <si>
-    <t>850-206-8894</t>
-  </si>
-  <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
-    <t>Payment Terms</t>
-  </si>
-  <si>
-    <t>Gary Funkhouser</t>
-  </si>
-  <si>
-    <t>Due upon reciept</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>Gen Set PM</t>
-  </si>
-  <si>
-    <t>SUBTOTAL</t>
-  </si>
-  <si>
-    <t>SALES TAX</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>If you have any questions concerning this invoice, use the following contact information:</t>
-  </si>
-  <si>
-    <t>Gary Funkhouser, (850) 207-1800, funkyselectrical@gmail.com
-License # EC13005709</t>
-  </si>
-  <si>
-    <t>THANK YOU FOR YOUR BUSINESS!</t>
-  </si>
-  <si>
-    <t>INVOICE #3133</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="4"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="29"/>
-      <color theme="5"/>
       <name val="Georgia"/>
       <family val="2"/>
+      <color theme="5"/>
+      <sz val="29"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="4"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="5"/>
       <name val="Georgia"/>
       <family val="1"/>
+      <color theme="5"/>
+      <sz val="15"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="4"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="4"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -200,93 +101,93 @@
     </border>
   </borders>
   <cellStyleXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="7">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="11">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Currency" xfId="8" builtinId="4"/>
-    <cellStyle name="Date" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Explanatory Text" xfId="9" builtinId="53"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Phone" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Product Description" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
+    <cellStyle name="Date" xfId="7"/>
+    <cellStyle name="Currency" xfId="8" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="9" builtinId="53"/>
+    <cellStyle name="Product Description" xfId="10"/>
+    <cellStyle name="Phone" xfId="11"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -299,7 +200,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="4"/>
       </font>
       <fill>
@@ -327,18 +228,18 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="4"/>
       </font>
       <border>
         <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.3999450666829432"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="4"/>
       </font>
       <border>
@@ -362,7 +263,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Invoice" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invoice" pivot="0" count="6" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Invoice" pivot="0" count="6">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -371,34 +272,94 @@
       <tableStyleElement type="lastTotalCell" dxfId="1"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="InvoiceDetails" displayName="InvoiceDetails" ref="B12:C13" headerRowCellStyle="Heading 4">
-  <autoFilter ref="B12:C13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InvoiceDetails" displayName="InvoiceDetails" ref="B12:C13" headerRowCount="1" headerRowCellStyle="Heading 4">
+  <autoFilter ref="B12:C13"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Details" totalsRowLabel="Total" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AMOUNT" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Details" totalsRowLabel="Total" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="AMOUNT" totalsRowFunction="sum" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="Invoice" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B10:C11" totalsRowShown="0">
-  <autoFilter ref="B10:C11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B10:C11" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="B10:C11"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Salesperson"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Payment Terms"/>
+    <tableColumn id="1" name="Salesperson"/>
+    <tableColumn id="2" name="Payment Terms"/>
   </tableColumns>
   <tableStyleInfo name="Invoice" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -606,162 +567,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="2.58203125" style="11" customWidth="1"/>
+    <col width="2.58203125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="50.6640625" customWidth="1" style="13" min="2" max="2"/>
+    <col width="30.5" customWidth="1" style="13" min="3" max="3"/>
+    <col width="2.58203125" customWidth="1" style="13" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" ht="50.15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="30" customHeight="1" s="13">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INVOICE #3135</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="50.15" customHeight="1" s="13">
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Funky's Electrical</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" s="13">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>5924 Ashton Woods Cir., Milton, FL 32570</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" s="13">
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>(850) 207-1800</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" s="13">
       <c r="B5" s="3">
-        <f ca="1">TODAY()</f>
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
+        <f>TODAY()</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="1" s="13">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>BILL TO</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" s="13">
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Alice Bell</t>
+        </is>
+      </c>
+      <c r="C7" s="16" t="inlineStr"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" s="13">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>6690 Chestnut Rd
+Molino, Fl, 32577</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" s="13">
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>850-206-8894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" s="13">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Salesperson</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Payment Terms</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" s="13">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Gary Funkhouser</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Due upon reciept</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="13">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>AMOUNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="13">
+      <c r="B13" s="0" t="inlineStr"/>
+      <c r="C13" s="8" t="inlineStr"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" s="13">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
       </c>
       <c r="C14" s="8">
         <f>SUBTOTAL(109,InvoiceDetails[AMOUNT])</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" s="13">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>SALES TAX</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1" s="13">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
       </c>
       <c r="C16" s="8">
         <f>SUM(C14)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1" s="13">
+      <c r="B17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" s="13">
+      <c r="B18" s="12">
         <f>"Make all checks payable to "&amp; Company_Name</f>
-        <v>Make all checks payable to Funky's Electrical</v>
-      </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1" s="13">
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>If you have any questions concerning this invoice, use the following contact information:</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1" s="13">
+      <c r="B20" s="15" t="inlineStr">
+        <is>
+          <t>Gary Funkhouser, (850) 207-1800, funkyselectrical@gmail.com
+License # EC13005709</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" s="13">
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>THANK YOU FOR YOUR BUSINESS!</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -772,40 +769,45 @@
     <mergeCell ref="C7:C9"/>
   </mergeCells>
   <dataValidations count="24">
-    <dataValidation showErrorMessage="1" sqref="A2:A1048576 B21:C1048576 C1:C5 D1:XFD8 D9:H9 D10:XFD1048576 J9:XFD9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Create an Invoice in this worksheet. Enter invoice details, item descriptions, amount, tax rate, and any other cost. Subtotal and Total are automatically calculated" sqref="A1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Number in this cell. Enter Invoice Company &amp; Customer details in cells below" sqref="B1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Company Name in this cell" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Company Address, City, State, and Zip Code in this cell" sqref="B3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Phone and Fax numbers in this cell" sqref="B4" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Date in this cell" sqref="B5" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Customer details in cell below" sqref="B6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Product Description in cell below" sqref="C6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Product Description in this cell" sqref="C7:C10" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Address, City, State, and Zip Code in this cell" sqref="B8" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Subtotal is automatically calculated in cell at right" sqref="B14" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Subtotal is automatically calculated in this cell" sqref="C14" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Tax Rate in cell at right" sqref="B15" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Tax Rate in this cell" sqref="C15" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Total is automatically calculated in cell at right" sqref="B16" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Total is automatically calculated in this cell" sqref="C16" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Company Name is automatically appended in this cell" sqref="B18:C18" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Contact details in cell below" sqref="B19:C19" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Contact Name, Phone Number, and Email in this cell" sqref="B20:C20" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Phone number in this cell" sqref="B9:B10" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Bill To Customer Name or Company Name in this cell" sqref="B7" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading for each description in column B. Enter Tax Rate &amp; any Other cost in cell below the table to calculate Subtotal and Total amount" sqref="C12:C13" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
-    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Enter Invoice Details in this column under this heading. Use heading filters to find specific entries" sqref="B12:B13" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation sqref="A2:A1048576 B21:C1048576 C1:C5 D1:XFD8 D9:H9 D10:XFD1048576 J9:XFD9" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0"/>
+    <dataValidation sqref="A1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Create an Invoice in this worksheet. Enter invoice details, item descriptions, amount, tax rate, and any other cost. Subtotal and Total are automatically calculated"/>
+    <dataValidation sqref="B1" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Number in this cell. Enter Invoice Company &amp; Customer details in cells below"/>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Company Name in this cell"/>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Company Address, City, State, and Zip Code in this cell"/>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Phone and Fax numbers in this cell"/>
+    <dataValidation sqref="B5" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Date in this cell"/>
+    <dataValidation sqref="B6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Customer details in cell below"/>
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Product Description in cell below"/>
+    <dataValidation sqref="C7:C10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Product Description in this cell"/>
+    <dataValidation sqref="B8" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Address, City, State, and Zip Code in this cell"/>
+    <dataValidation sqref="B14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Subtotal is automatically calculated in cell at right"/>
+    <dataValidation sqref="C14" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Subtotal is automatically calculated in this cell"/>
+    <dataValidation sqref="B15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Tax Rate in cell at right"/>
+    <dataValidation sqref="C15" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Tax Rate in this cell"/>
+    <dataValidation sqref="B16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Total is automatically calculated in cell at right"/>
+    <dataValidation sqref="C16" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Total is automatically calculated in this cell"/>
+    <dataValidation sqref="B18:C18" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Company Name is automatically appended in this cell"/>
+    <dataValidation sqref="B19:C19" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Contact details in cell below"/>
+    <dataValidation sqref="B20:C20" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Contact Name, Phone Number, and Email in this cell"/>
+    <dataValidation sqref="B9:B10" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Phone number in this cell"/>
+    <dataValidation sqref="B7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Bill To Customer Name or Company Name in this cell"/>
+    <dataValidation sqref="C12:C13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Amount in this column under this heading for each description in column B. Enter Tax Rate &amp; any Other cost in cell below the table to calculate Subtotal and Total amount"/>
+    <dataValidation sqref="B12:B13" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" prompt="Enter Invoice Details in this column under this heading. Use heading filters to find specific entries"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait"/>
+  <pageSetup orientation="portrait" fitToHeight="0"/>
   <headerFooter differentFirst="1">
+    <oddHeader/>
     <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Invoice_template.xlsx
+++ b/Invoice_template.xlsx
@@ -590,7 +590,7 @@
     <row r="1" ht="30" customHeight="1" s="13">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INVOICE #3135</t>
+          <t>INVOICE #3148</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,11 @@
           <t>Alice Bell</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr"/>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>Generator Maintenace</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="1" s="13">
       <c r="B8" s="0" t="inlineStr">
@@ -693,8 +697,14 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" s="13">
-      <c r="B13" s="0" t="inlineStr"/>
-      <c r="C13" s="8" t="inlineStr"/>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Gen Set PM</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="n">
+        <v>300</v>
+      </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="13">
       <c r="B14" s="4" t="inlineStr">

--- a/Invoice_template.xlsx
+++ b/Invoice_template.xlsx
@@ -590,7 +590,7 @@
     <row r="1" ht="30" customHeight="1" s="13">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INVOICE #3148</t>
+          <t>INVOICE #3153</t>
         </is>
       </c>
     </row>
@@ -636,29 +636,25 @@
     <row r="7" ht="18" customHeight="1" s="13">
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Alice Bell</t>
+          <t>Lucille Jernigan</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Generator Maintenace</t>
+          <t>Double Lug in Inside Panel Has Been Replaced</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" s="13">
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>6690 Chestnut Rd
-Molino, Fl, 32577</t>
+          <t>6514 Pine Blossom Rd
+Milton, FL 32570</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" s="13">
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>850-206-8894</t>
-        </is>
-      </c>
+      <c r="B9" s="6" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1" s="13">
       <c r="B10" s="0" t="inlineStr">
@@ -699,11 +695,11 @@
     <row r="13" ht="30" customHeight="1" s="13">
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Gen Set PM</t>
+          <t>Replacement of Double Lug</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="13">

--- a/Invoice_template.xlsx
+++ b/Invoice_template.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">InvoiceDetails[[#Headers],[Details]]</definedName>
@@ -567,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -575,26 +575,26 @@
   </sheetPr>
   <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col width="2.58203125" customWidth="1" style="13" min="1" max="1"/>
+    <col width="2.5" customWidth="1" style="13" min="1" max="1"/>
     <col width="50.6640625" customWidth="1" style="13" min="2" max="2"/>
     <col width="30.5" customWidth="1" style="13" min="3" max="3"/>
-    <col width="2.58203125" customWidth="1" style="13" min="4" max="4"/>
+    <col width="2.5" customWidth="1" style="13" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" s="13">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INVOICE #3153</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="50.15" customHeight="1" s="13">
+          <t>INVOICE #3178</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="50.25" customHeight="1" s="13">
       <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Funky's Electrical</t>
@@ -636,25 +636,25 @@
     <row r="7" ht="18" customHeight="1" s="13">
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Lucille Jernigan</t>
+          <t>John Schwab</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Double Lug in Inside Panel Has Been Replaced</t>
+          <t>Generator Maintenance</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" s="13">
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>6514 Pine Blossom Rd
-Milton, FL 32570</t>
+          <t>4041 Leesway Cir
+Pensacola, FL 32504</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" s="13">
-      <c r="B9" s="6" t="n"/>
+      <c r="B9" s="6" t="inlineStr"/>
     </row>
     <row r="10" ht="30" customHeight="1" s="13">
       <c r="B10" s="0" t="inlineStr">
@@ -695,11 +695,11 @@
     <row r="13" ht="30" customHeight="1" s="13">
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Replacement of Double Lug</t>
+          <t>Gen Set PM</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="13">
@@ -812,8 +812,8 @@
     <firstFooter/>
   </headerFooter>
   <tableParts count="2">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Invoice_template.xlsx
+++ b/Invoice_template.xlsx
@@ -590,7 +590,7 @@
     <row r="1" ht="30" customHeight="1" s="13">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>INVOICE #3178</t>
+          <t>INVOICE #3186</t>
         </is>
       </c>
     </row>
@@ -636,25 +636,29 @@
     <row r="7" ht="18" customHeight="1" s="13">
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>John Schwab</t>
+          <t>Betty Grady</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Generator Maintenance</t>
+          <t>Battery</t>
         </is>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" s="13">
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>4041 Leesway Cir
-Pensacola, FL 32504</t>
+          <t>5780 Dove Dr
+Pace, FL 32571</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" s="13">
-      <c r="B9" s="6" t="inlineStr"/>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>850-910-4492</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="1" s="13">
       <c r="B10" s="0" t="inlineStr">
@@ -695,11 +699,11 @@
     <row r="13" ht="30" customHeight="1" s="13">
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>Gen Set PM</t>
+          <t>Battery</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" s="13">
